--- a/EstimatedActiveCasesOverTimeByCounty/2021-01-27.xlsx
+++ b/EstimatedActiveCasesOverTimeByCounty/2021-01-27.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="312">
   <si>
-    <t>COVID-19 Active Cases by County, 12/11/2020 - 01/26/2021 at 3:00 PM CST</t>
+    <t>COVID-19 Active Cases by County, 12/11/2020 - 01/27/2021 at 3:00 PM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>Active Cases 01-26</t>
+  </si>
+  <si>
+    <t>Active Cases 01-27</t>
   </si>
   <si>
     <t/>
@@ -1108,6 +1111,7 @@
     <col min="46" max="46" width="12.0" customWidth="true"/>
     <col min="47" max="47" width="12.0" customWidth="true"/>
     <col min="48" max="48" width="12.0" customWidth="true"/>
+    <col min="49" max="49" width="12.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1265,13 +1269,16 @@
       <c r="AV3" t="s" s="10">
         <v>49</v>
       </c>
+      <c r="AW3" t="s" s="10">
+        <v>50</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C4" t="n">
         <v>261.0</v>
@@ -1410,14 +1417,17 @@
       </c>
       <c r="AV4" t="n">
         <v>534.0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>452.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C5" t="n">
         <v>313.0</v>
@@ -1556,14 +1566,17 @@
       </c>
       <c r="AV5" t="n">
         <v>220.0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>217.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C6" t="n">
         <v>751.0</v>
@@ -1702,14 +1715,17 @@
       </c>
       <c r="AV6" t="n">
         <v>810.0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>808.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C7" t="n">
         <v>103.0</v>
@@ -1848,14 +1864,17 @@
       </c>
       <c r="AV7" t="n">
         <v>133.0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>129.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C8" t="n">
         <v>45.0</v>
@@ -1994,14 +2013,17 @@
       </c>
       <c r="AV8" t="n">
         <v>14.0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C9" t="n">
         <v>32.0</v>
@@ -2140,14 +2162,17 @@
       </c>
       <c r="AV9" t="n">
         <v>21.0</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C10" t="n">
         <v>210.0</v>
@@ -2286,14 +2311,17 @@
       </c>
       <c r="AV10" t="n">
         <v>255.0</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>221.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" t="n">
         <v>77.0</v>
@@ -2432,14 +2460,17 @@
       </c>
       <c r="AV11" t="n">
         <v>132.0</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>113.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C12" t="n">
         <v>118.0</v>
@@ -2578,14 +2609,17 @@
       </c>
       <c r="AV12" t="n">
         <v>24.0</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C13" t="n">
         <v>46.0</v>
@@ -2724,14 +2758,17 @@
       </c>
       <c r="AV13" t="n">
         <v>49.0</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>46.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C14" t="n">
         <v>461.0</v>
@@ -2870,14 +2907,17 @@
       </c>
       <c r="AV14" t="n">
         <v>607.0</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>663.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C15" t="n">
         <v>8.0</v>
@@ -3015,15 +3055,18 @@
         <v>6.0</v>
       </c>
       <c r="AV15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AW15" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C16" t="n">
         <v>171.0</v>
@@ -3162,14 +3205,17 @@
       </c>
       <c r="AV16" t="n">
         <v>318.0</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>293.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C17" t="n">
         <v>1639.0</v>
@@ -3308,14 +3354,17 @@
       </c>
       <c r="AV17" t="n">
         <v>2065.0</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>1880.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C18" t="n">
         <v>15750.0</v>
@@ -3454,14 +3503,17 @@
       </c>
       <c r="AV18" t="n">
         <v>31758.0</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>30719.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C19" t="n">
         <v>24.0</v>
@@ -3600,14 +3652,17 @@
       </c>
       <c r="AV19" t="n">
         <v>25.0</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C20" t="n">
         <v>5.0</v>
@@ -3745,15 +3800,18 @@
         <v>0.0</v>
       </c>
       <c r="AV20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW20" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C21" t="n">
         <v>74.0</v>
@@ -3892,14 +3950,17 @@
       </c>
       <c r="AV21" t="n">
         <v>117.0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>107.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C22" t="n">
         <v>482.0</v>
@@ -4038,14 +4099,17 @@
       </c>
       <c r="AV22" t="n">
         <v>363.0</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>348.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C23" t="n">
         <v>2730.0</v>
@@ -4184,14 +4248,17 @@
       </c>
       <c r="AV23" t="n">
         <v>6130.0</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>5696.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C24" t="n">
         <v>854.0</v>
@@ -4330,14 +4397,17 @@
       </c>
       <c r="AV24" t="n">
         <v>1553.0</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>1551.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C25" t="n">
         <v>182.0</v>
@@ -4476,14 +4546,17 @@
       </c>
       <c r="AV25" t="n">
         <v>65.0</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>35.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C26" t="n">
         <v>15.0</v>
@@ -4622,14 +4695,17 @@
       </c>
       <c r="AV26" t="n">
         <v>15.0</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C27" t="n">
         <v>38.0</v>
@@ -4768,14 +4844,17 @@
       </c>
       <c r="AV27" t="n">
         <v>62.0</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>58.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C28" t="n">
         <v>429.0</v>
@@ -4914,14 +4993,17 @@
       </c>
       <c r="AV28" t="n">
         <v>470.0</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>447.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C29" t="n">
         <v>119.0</v>
@@ -5060,14 +5142,17 @@
       </c>
       <c r="AV29" t="n">
         <v>112.0</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>109.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C30" t="n">
         <v>311.0</v>
@@ -5206,14 +5291,17 @@
       </c>
       <c r="AV30" t="n">
         <v>198.0</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>189.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C31" t="n">
         <v>197.0</v>
@@ -5352,14 +5440,17 @@
       </c>
       <c r="AV31" t="n">
         <v>245.0</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>232.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C32" t="n">
         <v>51.0</v>
@@ -5498,14 +5589,17 @@
       </c>
       <c r="AV32" t="n">
         <v>83.0</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>78.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C33" t="n">
         <v>49.0</v>
@@ -5644,14 +5738,17 @@
       </c>
       <c r="AV33" t="n">
         <v>8.0</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C34" t="n">
         <v>2029.0</v>
@@ -5790,14 +5887,17 @@
       </c>
       <c r="AV34" t="n">
         <v>5101.0</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>5235.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C35" t="n">
         <v>71.0</v>
@@ -5935,15 +6035,18 @@
         <v>188.0</v>
       </c>
       <c r="AV35" t="n">
+        <v>142.0</v>
+      </c>
+      <c r="AW35" t="n">
         <v>142.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C36" t="n">
         <v>117.0</v>
@@ -6082,14 +6185,17 @@
       </c>
       <c r="AV36" t="n">
         <v>20.0</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C37" t="n">
         <v>83.0</v>
@@ -6228,14 +6334,17 @@
       </c>
       <c r="AV37" t="n">
         <v>91.0</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>93.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C38" t="n">
         <v>133.0</v>
@@ -6374,14 +6483,17 @@
       </c>
       <c r="AV38" t="n">
         <v>29.0</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C39" t="n">
         <v>269.0</v>
@@ -6520,14 +6632,17 @@
       </c>
       <c r="AV39" t="n">
         <v>343.0</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>355.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C40" t="n">
         <v>214.0</v>
@@ -6666,14 +6781,17 @@
       </c>
       <c r="AV40" t="n">
         <v>220.0</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>275.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C41" t="n">
         <v>218.0</v>
@@ -6812,14 +6930,17 @@
       </c>
       <c r="AV41" t="n">
         <v>50.0</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>46.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C42" t="n">
         <v>63.0</v>
@@ -6958,14 +7079,17 @@
       </c>
       <c r="AV42" t="n">
         <v>22.0</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C43" t="n">
         <v>19.0</v>
@@ -7103,15 +7227,18 @@
         <v>12.0</v>
       </c>
       <c r="AV43" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AW43" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C44" t="n">
         <v>38.0</v>
@@ -7250,14 +7377,17 @@
       </c>
       <c r="AV44" t="n">
         <v>23.0</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C45" t="n">
         <v>12.0</v>
@@ -7395,15 +7525,18 @@
         <v>16.0</v>
       </c>
       <c r="AV45" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AW45" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C46" t="n">
         <v>3987.0</v>
@@ -7542,14 +7675,17 @@
       </c>
       <c r="AV46" t="n">
         <v>4666.0</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>4670.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C47" t="n">
         <v>104.0</v>
@@ -7688,14 +7824,17 @@
       </c>
       <c r="AV47" t="n">
         <v>18.0</v>
+      </c>
+      <c r="AW47" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C48" t="n">
         <v>91.0</v>
@@ -7834,14 +7973,17 @@
       </c>
       <c r="AV48" t="n">
         <v>79.0</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>66.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C49" t="n">
         <v>667.0</v>
@@ -7979,15 +8121,18 @@
         <v>691.0</v>
       </c>
       <c r="AV49" t="n">
+        <v>713.0</v>
+      </c>
+      <c r="AW49" t="n">
         <v>713.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C50" t="n">
         <v>112.0</v>
@@ -8125,15 +8270,18 @@
         <v>12.0</v>
       </c>
       <c r="AV50" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AW50" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C51" t="n">
         <v>11.0</v>
@@ -8272,14 +8420,17 @@
       </c>
       <c r="AV51" t="n">
         <v>25.0</v>
+      </c>
+      <c r="AW51" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C52" t="n">
         <v>249.0</v>
@@ -8418,14 +8569,17 @@
       </c>
       <c r="AV52" t="n">
         <v>106.0</v>
+      </c>
+      <c r="AW52" t="n">
+        <v>98.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C53" t="n">
         <v>318.0</v>
@@ -8564,14 +8718,17 @@
       </c>
       <c r="AV53" t="n">
         <v>463.0</v>
+      </c>
+      <c r="AW53" t="n">
+        <v>424.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C54" t="n">
         <v>30.0</v>
@@ -8709,15 +8866,18 @@
         <v>3.0</v>
       </c>
       <c r="AV54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW54" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B55" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C55" t="n">
         <v>0.0</v>
@@ -8855,15 +9015,18 @@
         <v>0.0</v>
       </c>
       <c r="AV55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW55" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B56" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C56" t="n">
         <v>8.0</v>
@@ -9002,14 +9165,17 @@
       </c>
       <c r="AV56" t="n">
         <v>3.0</v>
+      </c>
+      <c r="AW56" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B57" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C57" t="n">
         <v>40.0</v>
@@ -9148,14 +9314,17 @@
       </c>
       <c r="AV57" t="n">
         <v>36.0</v>
+      </c>
+      <c r="AW57" t="n">
+        <v>54.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B58" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C58" t="n">
         <v>44.0</v>
@@ -9294,14 +9463,17 @@
       </c>
       <c r="AV58" t="n">
         <v>27.0</v>
+      </c>
+      <c r="AW58" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B59" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C59" t="n">
         <v>24.0</v>
@@ -9440,14 +9612,17 @@
       </c>
       <c r="AV59" t="n">
         <v>0.0</v>
+      </c>
+      <c r="AW59" t="n">
+        <v>46.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B60" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C60" t="n">
         <v>25147.0</v>
@@ -9586,14 +9761,17 @@
       </c>
       <c r="AV60" t="n">
         <v>37163.0</v>
+      </c>
+      <c r="AW60" t="n">
+        <v>36170.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B61" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C61" t="n">
         <v>161.0</v>
@@ -9732,14 +9910,17 @@
       </c>
       <c r="AV61" t="n">
         <v>101.0</v>
+      </c>
+      <c r="AW61" t="n">
+        <v>46.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B62" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C62" t="n">
         <v>418.0</v>
@@ -9878,14 +10059,17 @@
       </c>
       <c r="AV62" t="n">
         <v>103.0</v>
+      </c>
+      <c r="AW62" t="n">
+        <v>102.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B63" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C63" t="n">
         <v>25.0</v>
@@ -10024,14 +10208,17 @@
       </c>
       <c r="AV63" t="n">
         <v>33.0</v>
+      </c>
+      <c r="AW63" t="n">
+        <v>37.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B64" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C64" t="n">
         <v>8213.0</v>
@@ -10170,14 +10357,17 @@
       </c>
       <c r="AV64" t="n">
         <v>14768.0</v>
+      </c>
+      <c r="AW64" t="n">
+        <v>14880.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B65" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C65" t="n">
         <v>99.0</v>
@@ -10315,15 +10505,18 @@
         <v>128.0</v>
       </c>
       <c r="AV65" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="AW65" t="n">
         <v>124.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B66" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C66" t="n">
         <v>19.0</v>
@@ -10462,14 +10655,17 @@
       </c>
       <c r="AV66" t="n">
         <v>9.0</v>
+      </c>
+      <c r="AW66" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B67" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C67" t="n">
         <v>44.0</v>
@@ -10608,14 +10804,17 @@
       </c>
       <c r="AV67" t="n">
         <v>137.0</v>
+      </c>
+      <c r="AW67" t="n">
+        <v>124.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B68" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C68" t="n">
         <v>47.0</v>
@@ -10753,15 +10952,18 @@
         <v>25.0</v>
       </c>
       <c r="AV68" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="AW68" t="n">
         <v>27.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B69" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C69" t="n">
         <v>86.0</v>
@@ -10900,14 +11102,17 @@
       </c>
       <c r="AV69" t="n">
         <v>137.0</v>
+      </c>
+      <c r="AW69" t="n">
+        <v>127.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B70" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C70" t="n">
         <v>55.0</v>
@@ -11046,14 +11251,17 @@
       </c>
       <c r="AV70" t="n">
         <v>7.0</v>
+      </c>
+      <c r="AW70" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B71" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C71" t="n">
         <v>5924.0</v>
@@ -11192,14 +11400,17 @@
       </c>
       <c r="AV71" t="n">
         <v>1804.0</v>
+      </c>
+      <c r="AW71" t="n">
+        <v>1724.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B72" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C72" t="n">
         <v>14.0</v>
@@ -11337,15 +11548,18 @@
         <v>4.0</v>
       </c>
       <c r="AV72" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AW72" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B73" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C73" t="n">
         <v>856.0</v>
@@ -11484,14 +11698,17 @@
       </c>
       <c r="AV73" t="n">
         <v>747.0</v>
+      </c>
+      <c r="AW73" t="n">
+        <v>659.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B74" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C74" t="n">
         <v>37353.0</v>
@@ -11630,14 +11847,17 @@
       </c>
       <c r="AV74" t="n">
         <v>35225.0</v>
+      </c>
+      <c r="AW74" t="n">
+        <v>35356.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B75" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C75" t="n">
         <v>162.0</v>
@@ -11776,14 +11996,17 @@
       </c>
       <c r="AV75" t="n">
         <v>36.0</v>
+      </c>
+      <c r="AW75" t="n">
+        <v>44.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B76" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C76" t="n">
         <v>77.0</v>
@@ -11922,14 +12145,17 @@
       </c>
       <c r="AV76" t="n">
         <v>132.0</v>
+      </c>
+      <c r="AW76" t="n">
+        <v>118.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B77" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C77" t="n">
         <v>151.0</v>
@@ -12068,14 +12294,17 @@
       </c>
       <c r="AV77" t="n">
         <v>156.0</v>
+      </c>
+      <c r="AW77" t="n">
+        <v>132.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B78" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C78" t="n">
         <v>193.0</v>
@@ -12214,14 +12443,17 @@
       </c>
       <c r="AV78" t="n">
         <v>148.0</v>
+      </c>
+      <c r="AW78" t="n">
+        <v>154.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B79" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C79" t="n">
         <v>28.0</v>
@@ -12360,14 +12592,17 @@
       </c>
       <c r="AV79" t="n">
         <v>12.0</v>
+      </c>
+      <c r="AW79" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B80" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C80" t="n">
         <v>107.0</v>
@@ -12506,14 +12741,17 @@
       </c>
       <c r="AV80" t="n">
         <v>65.0</v>
+      </c>
+      <c r="AW80" t="n">
+        <v>63.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B81" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C81" t="n">
         <v>0.0</v>
@@ -12651,15 +12889,18 @@
         <v>1.0</v>
       </c>
       <c r="AV81" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AW81" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B82" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C82" t="n">
         <v>7296.0</v>
@@ -12798,14 +13039,17 @@
       </c>
       <c r="AV82" t="n">
         <v>13860.0</v>
+      </c>
+      <c r="AW82" t="n">
+        <v>14191.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B83" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C83" t="n">
         <v>24.0</v>
@@ -12944,14 +13188,17 @@
       </c>
       <c r="AV83" t="n">
         <v>90.0</v>
+      </c>
+      <c r="AW83" t="n">
+        <v>89.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B84" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C84" t="n">
         <v>129.0</v>
@@ -13090,14 +13337,17 @@
       </c>
       <c r="AV84" t="n">
         <v>50.0</v>
+      </c>
+      <c r="AW84" t="n">
+        <v>49.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B85" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C85" t="n">
         <v>107.0</v>
@@ -13236,14 +13486,17 @@
       </c>
       <c r="AV85" t="n">
         <v>105.0</v>
+      </c>
+      <c r="AW85" t="n">
+        <v>107.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B86" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C86" t="n">
         <v>162.0</v>
@@ -13382,14 +13635,17 @@
       </c>
       <c r="AV86" t="n">
         <v>37.0</v>
+      </c>
+      <c r="AW86" t="n">
+        <v>57.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B87" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C87" t="n">
         <v>2026.0</v>
@@ -13528,14 +13784,17 @@
       </c>
       <c r="AV87" t="n">
         <v>7964.0</v>
+      </c>
+      <c r="AW87" t="n">
+        <v>7983.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B88" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C88" t="n">
         <v>27.0</v>
@@ -13674,14 +13933,17 @@
       </c>
       <c r="AV88" t="n">
         <v>13.0</v>
+      </c>
+      <c r="AW88" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B89" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C89" t="n">
         <v>126.0</v>
@@ -13820,14 +14082,17 @@
       </c>
       <c r="AV89" t="n">
         <v>159.0</v>
+      </c>
+      <c r="AW89" t="n">
+        <v>148.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B90" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C90" t="n">
         <v>0.0</v>
@@ -13966,14 +14231,17 @@
       </c>
       <c r="AV90" t="n">
         <v>2.0</v>
+      </c>
+      <c r="AW90" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B91" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C91" t="n">
         <v>2.0</v>
@@ -14111,15 +14379,18 @@
         <v>3.0</v>
       </c>
       <c r="AV91" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AW91" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B92" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C92" t="n">
         <v>87.0</v>
@@ -14258,14 +14529,17 @@
       </c>
       <c r="AV92" t="n">
         <v>124.0</v>
+      </c>
+      <c r="AW92" t="n">
+        <v>138.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B93" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C93" t="n">
         <v>355.0</v>
@@ -14404,14 +14678,17 @@
       </c>
       <c r="AV93" t="n">
         <v>98.0</v>
+      </c>
+      <c r="AW93" t="n">
+        <v>121.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B94" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C94" t="n">
         <v>420.0</v>
@@ -14550,14 +14827,17 @@
       </c>
       <c r="AV94" t="n">
         <v>446.0</v>
+      </c>
+      <c r="AW94" t="n">
+        <v>394.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B95" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C95" t="n">
         <v>2037.0</v>
@@ -14696,14 +14976,17 @@
       </c>
       <c r="AV95" t="n">
         <v>3040.0</v>
+      </c>
+      <c r="AW95" t="n">
+        <v>3322.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B96" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C96" t="n">
         <v>179.0</v>
@@ -14842,14 +15125,17 @@
       </c>
       <c r="AV96" t="n">
         <v>22.0</v>
+      </c>
+      <c r="AW96" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B97" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C97" t="n">
         <v>401.0</v>
@@ -14988,14 +15274,17 @@
       </c>
       <c r="AV97" t="n">
         <v>610.0</v>
+      </c>
+      <c r="AW97" t="n">
+        <v>549.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B98" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C98" t="n">
         <v>440.0</v>
@@ -15134,14 +15423,17 @@
       </c>
       <c r="AV98" t="n">
         <v>190.0</v>
+      </c>
+      <c r="AW98" t="n">
+        <v>149.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B99" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C99" t="n">
         <v>91.0</v>
@@ -15280,14 +15572,17 @@
       </c>
       <c r="AV99" t="n">
         <v>80.0</v>
+      </c>
+      <c r="AW99" t="n">
+        <v>66.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B100" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C100" t="n">
         <v>53.0</v>
@@ -15426,14 +15721,17 @@
       </c>
       <c r="AV100" t="n">
         <v>69.0</v>
+      </c>
+      <c r="AW100" t="n">
+        <v>71.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B101" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C101" t="n">
         <v>112.0</v>
@@ -15572,14 +15870,17 @@
       </c>
       <c r="AV101" t="n">
         <v>57.0</v>
+      </c>
+      <c r="AW101" t="n">
+        <v>69.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B102" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C102" t="n">
         <v>13.0</v>
@@ -15718,14 +16019,17 @@
       </c>
       <c r="AV102" t="n">
         <v>3.0</v>
+      </c>
+      <c r="AW102" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B103" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C103" t="n">
         <v>1162.0</v>
@@ -15864,14 +16168,17 @@
       </c>
       <c r="AV103" t="n">
         <v>817.0</v>
+      </c>
+      <c r="AW103" t="n">
+        <v>776.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B104" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C104" t="n">
         <v>21091.0</v>
@@ -16010,14 +16317,17 @@
       </c>
       <c r="AV104" t="n">
         <v>50578.0</v>
+      </c>
+      <c r="AW104" t="n">
+        <v>51563.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B105" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C105" t="n">
         <v>239.0</v>
@@ -16156,14 +16466,17 @@
       </c>
       <c r="AV105" t="n">
         <v>770.0</v>
+      </c>
+      <c r="AW105" t="n">
+        <v>790.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B106" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C106" t="n">
         <v>61.0</v>
@@ -16302,14 +16615,17 @@
       </c>
       <c r="AV106" t="n">
         <v>4.0</v>
+      </c>
+      <c r="AW106" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B107" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C107" t="n">
         <v>13.0</v>
@@ -16447,15 +16763,18 @@
         <v>9.0</v>
       </c>
       <c r="AV107" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AW107" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B108" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C108" t="n">
         <v>982.0</v>
@@ -16594,14 +16913,17 @@
       </c>
       <c r="AV108" t="n">
         <v>3007.0</v>
+      </c>
+      <c r="AW108" t="n">
+        <v>2600.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B109" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C109" t="n">
         <v>55.0</v>
@@ -16740,14 +17062,17 @@
       </c>
       <c r="AV109" t="n">
         <v>95.0</v>
+      </c>
+      <c r="AW109" t="n">
+        <v>102.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B110" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C110" t="n">
         <v>1131.0</v>
@@ -16886,14 +17211,17 @@
       </c>
       <c r="AV110" t="n">
         <v>1640.0</v>
+      </c>
+      <c r="AW110" t="n">
+        <v>1750.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B111" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C111" t="n">
         <v>2517.0</v>
@@ -17032,14 +17360,17 @@
       </c>
       <c r="AV111" t="n">
         <v>2068.0</v>
+      </c>
+      <c r="AW111" t="n">
+        <v>1988.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B112" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C112" t="n">
         <v>327.0</v>
@@ -17178,14 +17509,17 @@
       </c>
       <c r="AV112" t="n">
         <v>184.0</v>
+      </c>
+      <c r="AW112" t="n">
+        <v>194.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B113" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C113" t="n">
         <v>256.0</v>
@@ -17324,14 +17658,17 @@
       </c>
       <c r="AV113" t="n">
         <v>102.0</v>
+      </c>
+      <c r="AW113" t="n">
+        <v>125.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B114" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C114" t="n">
         <v>280.0</v>
@@ -17470,14 +17807,17 @@
       </c>
       <c r="AV114" t="n">
         <v>188.0</v>
+      </c>
+      <c r="AW114" t="n">
+        <v>168.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B115" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C115" t="n">
         <v>225.0</v>
@@ -17616,14 +17956,17 @@
       </c>
       <c r="AV115" t="n">
         <v>139.0</v>
+      </c>
+      <c r="AW115" t="n">
+        <v>129.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B116" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C116" t="n">
         <v>54.0</v>
@@ -17762,14 +18105,17 @@
       </c>
       <c r="AV116" t="n">
         <v>93.0</v>
+      </c>
+      <c r="AW116" t="n">
+        <v>99.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C117" t="n">
         <v>594.0</v>
@@ -17908,14 +18254,17 @@
       </c>
       <c r="AV117" t="n">
         <v>160.0</v>
+      </c>
+      <c r="AW117" t="n">
+        <v>183.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B118" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C118" t="n">
         <v>64.0</v>
@@ -18054,14 +18403,17 @@
       </c>
       <c r="AV118" t="n">
         <v>40.0</v>
+      </c>
+      <c r="AW118" t="n">
+        <v>41.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B119" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C119" t="n">
         <v>321.0</v>
@@ -18200,14 +18552,17 @@
       </c>
       <c r="AV119" t="n">
         <v>817.0</v>
+      </c>
+      <c r="AW119" t="n">
+        <v>886.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B120" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C120" t="n">
         <v>264.0</v>
@@ -18346,14 +18701,17 @@
       </c>
       <c r="AV120" t="n">
         <v>92.0</v>
+      </c>
+      <c r="AW120" t="n">
+        <v>127.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B121" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C121" t="n">
         <v>0.0</v>
@@ -18491,15 +18849,18 @@
         <v>12.0</v>
       </c>
       <c r="AV121" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AW121" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B122" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C122" t="n">
         <v>17.0</v>
@@ -18638,14 +18999,17 @@
       </c>
       <c r="AV122" t="n">
         <v>37.0</v>
+      </c>
+      <c r="AW122" t="n">
+        <v>36.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B123" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C123" t="n">
         <v>58.0</v>
@@ -18784,14 +19148,17 @@
       </c>
       <c r="AV123" t="n">
         <v>56.0</v>
+      </c>
+      <c r="AW123" t="n">
+        <v>75.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B124" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C124" t="n">
         <v>138.0</v>
@@ -18930,14 +19297,17 @@
       </c>
       <c r="AV124" t="n">
         <v>77.0</v>
+      </c>
+      <c r="AW124" t="n">
+        <v>121.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B125" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C125" t="n">
         <v>19.0</v>
@@ -19076,14 +19446,17 @@
       </c>
       <c r="AV125" t="n">
         <v>11.0</v>
+      </c>
+      <c r="AW125" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B126" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C126" t="n">
         <v>2137.0</v>
@@ -19222,14 +19595,17 @@
       </c>
       <c r="AV126" t="n">
         <v>3422.0</v>
+      </c>
+      <c r="AW126" t="n">
+        <v>3441.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B127" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C127" t="n">
         <v>42.0</v>
@@ -19368,14 +19744,17 @@
       </c>
       <c r="AV127" t="n">
         <v>138.0</v>
+      </c>
+      <c r="AW127" t="n">
+        <v>135.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B128" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C128" t="n">
         <v>248.0</v>
@@ -19514,14 +19893,17 @@
       </c>
       <c r="AV128" t="n">
         <v>500.0</v>
+      </c>
+      <c r="AW128" t="n">
+        <v>484.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B129" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C129" t="n">
         <v>846.0</v>
@@ -19660,14 +20042,17 @@
       </c>
       <c r="AV129" t="n">
         <v>714.0</v>
+      </c>
+      <c r="AW129" t="n">
+        <v>557.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B130" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C130" t="n">
         <v>658.0</v>
@@ -19805,15 +20190,18 @@
         <v>215.0</v>
       </c>
       <c r="AV130" t="n">
+        <v>193.0</v>
+      </c>
+      <c r="AW130" t="n">
         <v>193.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B131" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C131" t="n">
         <v>44.0</v>
@@ -19952,14 +20340,17 @@
       </c>
       <c r="AV131" t="n">
         <v>39.0</v>
+      </c>
+      <c r="AW131" t="n">
+        <v>38.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B132" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C132" t="n">
         <v>524.0</v>
@@ -20098,14 +20489,17 @@
       </c>
       <c r="AV132" t="n">
         <v>532.0</v>
+      </c>
+      <c r="AW132" t="n">
+        <v>486.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B133" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C133" t="n">
         <v>120.0</v>
@@ -20244,14 +20638,17 @@
       </c>
       <c r="AV133" t="n">
         <v>148.0</v>
+      </c>
+      <c r="AW133" t="n">
+        <v>134.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B134" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C134" t="n">
         <v>2.0</v>
@@ -20389,15 +20786,18 @@
         <v>3.0</v>
       </c>
       <c r="AV134" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AW134" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B135" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C135" t="n">
         <v>3.0</v>
@@ -20535,15 +20935,18 @@
         <v>0.0</v>
       </c>
       <c r="AV135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW135" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B136" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C136" t="n">
         <v>241.0</v>
@@ -20682,14 +21085,17 @@
       </c>
       <c r="AV136" t="n">
         <v>145.0</v>
+      </c>
+      <c r="AW136" t="n">
+        <v>234.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B137" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C137" t="n">
         <v>6.0</v>
@@ -20828,14 +21234,17 @@
       </c>
       <c r="AV137" t="n">
         <v>33.0</v>
+      </c>
+      <c r="AW137" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B138" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C138" t="n">
         <v>3.0</v>
@@ -20974,14 +21383,17 @@
       </c>
       <c r="AV138" t="n">
         <v>5.0</v>
+      </c>
+      <c r="AW138" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B139" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C139" t="n">
         <v>5.0</v>
@@ -21120,14 +21532,17 @@
       </c>
       <c r="AV139" t="n">
         <v>27.0</v>
+      </c>
+      <c r="AW139" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B140" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C140" t="n">
         <v>108.0</v>
@@ -21265,15 +21680,18 @@
         <v>274.0</v>
       </c>
       <c r="AV140" t="n">
+        <v>271.0</v>
+      </c>
+      <c r="AW140" t="n">
         <v>271.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B141" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C141" t="n">
         <v>4.0</v>
@@ -21412,14 +21830,17 @@
       </c>
       <c r="AV141" t="n">
         <v>1.0</v>
+      </c>
+      <c r="AW141" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B142" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C142" t="n">
         <v>410.0</v>
@@ -21558,14 +21979,17 @@
       </c>
       <c r="AV142" t="n">
         <v>629.0</v>
+      </c>
+      <c r="AW142" t="n">
+        <v>627.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B143" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C143" t="n">
         <v>354.0</v>
@@ -21704,14 +22128,17 @@
       </c>
       <c r="AV143" t="n">
         <v>101.0</v>
+      </c>
+      <c r="AW143" t="n">
+        <v>90.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B144" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C144" t="n">
         <v>113.0</v>
@@ -21850,14 +22277,17 @@
       </c>
       <c r="AV144" t="n">
         <v>190.0</v>
+      </c>
+      <c r="AW144" t="n">
+        <v>198.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B145" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C145" t="n">
         <v>76.0</v>
@@ -21995,15 +22425,18 @@
         <v>63.0</v>
       </c>
       <c r="AV145" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="AW145" t="n">
         <v>62.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B146" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C146" t="n">
         <v>47.0</v>
@@ -22142,14 +22575,17 @@
       </c>
       <c r="AV146" t="n">
         <v>57.0</v>
+      </c>
+      <c r="AW146" t="n">
+        <v>56.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B147" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C147" t="n">
         <v>123.0</v>
@@ -22288,14 +22724,17 @@
       </c>
       <c r="AV147" t="n">
         <v>169.0</v>
+      </c>
+      <c r="AW147" t="n">
+        <v>155.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B148" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C148" t="n">
         <v>98.0</v>
@@ -22434,14 +22873,17 @@
       </c>
       <c r="AV148" t="n">
         <v>85.0</v>
+      </c>
+      <c r="AW148" t="n">
+        <v>80.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B149" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C149" t="n">
         <v>203.0</v>
@@ -22580,14 +23022,17 @@
       </c>
       <c r="AV149" t="n">
         <v>516.0</v>
+      </c>
+      <c r="AW149" t="n">
+        <v>484.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B150" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C150" t="n">
         <v>137.0</v>
@@ -22726,14 +23171,17 @@
       </c>
       <c r="AV150" t="n">
         <v>127.0</v>
+      </c>
+      <c r="AW150" t="n">
+        <v>123.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B151" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C151" t="n">
         <v>53.0</v>
@@ -22872,14 +23320,17 @@
       </c>
       <c r="AV151" t="n">
         <v>23.0</v>
+      </c>
+      <c r="AW151" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B152" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C152" t="n">
         <v>137.0</v>
@@ -23018,14 +23469,17 @@
       </c>
       <c r="AV152" t="n">
         <v>124.0</v>
+      </c>
+      <c r="AW152" t="n">
+        <v>133.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B153" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C153" t="n">
         <v>133.0</v>
@@ -23164,14 +23618,17 @@
       </c>
       <c r="AV153" t="n">
         <v>152.0</v>
+      </c>
+      <c r="AW153" t="n">
+        <v>160.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B154" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C154" t="n">
         <v>0.0</v>
@@ -23309,15 +23766,18 @@
         <v>0.0</v>
       </c>
       <c r="AV154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW154" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B155" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C155" t="n">
         <v>4535.0</v>
@@ -23456,14 +23916,17 @@
       </c>
       <c r="AV155" t="n">
         <v>2171.0</v>
+      </c>
+      <c r="AW155" t="n">
+        <v>2007.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B156" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C156" t="n">
         <v>83.0</v>
@@ -23602,14 +24065,17 @@
       </c>
       <c r="AV156" t="n">
         <v>19.0</v>
+      </c>
+      <c r="AW156" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B157" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C157" t="n">
         <v>41.0</v>
@@ -23748,14 +24214,17 @@
       </c>
       <c r="AV157" t="n">
         <v>35.0</v>
+      </c>
+      <c r="AW157" t="n">
+        <v>36.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B158" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C158" t="n">
         <v>1147.0</v>
@@ -23894,14 +24363,17 @@
       </c>
       <c r="AV158" t="n">
         <v>787.0</v>
+      </c>
+      <c r="AW158" t="n">
+        <v>770.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B159" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C159" t="n">
         <v>7.0</v>
@@ -24040,14 +24512,17 @@
       </c>
       <c r="AV159" t="n">
         <v>5.0</v>
+      </c>
+      <c r="AW159" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B160" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C160" t="n">
         <v>62.0</v>
@@ -24186,14 +24661,17 @@
       </c>
       <c r="AV160" t="n">
         <v>49.0</v>
+      </c>
+      <c r="AW160" t="n">
+        <v>52.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B161" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C161" t="n">
         <v>14.0</v>
@@ -24332,14 +24810,17 @@
       </c>
       <c r="AV161" t="n">
         <v>93.0</v>
+      </c>
+      <c r="AW161" t="n">
+        <v>92.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B162" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C162" t="n">
         <v>88.0</v>
@@ -24477,15 +24958,18 @@
         <v>10.0</v>
       </c>
       <c r="AV162" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW162" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B163" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C163" t="n">
         <v>31.0</v>
@@ -24624,14 +25108,17 @@
       </c>
       <c r="AV163" t="n">
         <v>32.0</v>
+      </c>
+      <c r="AW163" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B164" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C164" t="n">
         <v>83.0</v>
@@ -24770,14 +25257,17 @@
       </c>
       <c r="AV164" t="n">
         <v>159.0</v>
+      </c>
+      <c r="AW164" t="n">
+        <v>148.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B165" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C165" t="n">
         <v>632.0</v>
@@ -24916,14 +25406,17 @@
       </c>
       <c r="AV165" t="n">
         <v>1310.0</v>
+      </c>
+      <c r="AW165" t="n">
+        <v>1273.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B166" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C166" t="n">
         <v>148.0</v>
@@ -25062,14 +25555,17 @@
       </c>
       <c r="AV166" t="n">
         <v>185.0</v>
+      </c>
+      <c r="AW166" t="n">
+        <v>192.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B167" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C167" t="n">
         <v>17.0</v>
@@ -25207,15 +25703,18 @@
         <v>17.0</v>
       </c>
       <c r="AV167" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AW167" t="n">
         <v>23.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B168" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C168" t="n">
         <v>1564.0</v>
@@ -25354,14 +25853,17 @@
       </c>
       <c r="AV168" t="n">
         <v>3094.0</v>
+      </c>
+      <c r="AW168" t="n">
+        <v>2698.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B169" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C169" t="n">
         <v>123.0</v>
@@ -25500,14 +26002,17 @@
       </c>
       <c r="AV169" t="n">
         <v>67.0</v>
+      </c>
+      <c r="AW169" t="n">
+        <v>70.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B170" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C170" t="n">
         <v>56.0</v>
@@ -25646,14 +26151,17 @@
       </c>
       <c r="AV170" t="n">
         <v>99.0</v>
+      </c>
+      <c r="AW170" t="n">
+        <v>100.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B171" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C171" t="n">
         <v>83.0</v>
@@ -25791,15 +26299,18 @@
         <v>35.0</v>
       </c>
       <c r="AV171" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AW171" t="n">
         <v>21.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B172" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C172" t="n">
         <v>89.0</v>
@@ -25938,14 +26449,17 @@
       </c>
       <c r="AV172" t="n">
         <v>42.0</v>
+      </c>
+      <c r="AW172" t="n">
+        <v>33.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B173" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C173" t="n">
         <v>8150.0</v>
@@ -26084,14 +26598,17 @@
       </c>
       <c r="AV173" t="n">
         <v>19649.0</v>
+      </c>
+      <c r="AW173" t="n">
+        <v>19743.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B174" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C174" t="n">
         <v>193.0</v>
@@ -26230,14 +26747,17 @@
       </c>
       <c r="AV174" t="n">
         <v>30.0</v>
+      </c>
+      <c r="AW174" t="n">
+        <v>33.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B175" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C175" t="n">
         <v>22.0</v>
@@ -26376,14 +26896,17 @@
       </c>
       <c r="AV175" t="n">
         <v>106.0</v>
+      </c>
+      <c r="AW175" t="n">
+        <v>103.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B176" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C176" t="n">
         <v>26.0</v>
@@ -26521,15 +27044,18 @@
         <v>2.0</v>
       </c>
       <c r="AV176" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AW176" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B177" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C177" t="n">
         <v>204.0</v>
@@ -26668,14 +27194,17 @@
       </c>
       <c r="AV177" t="n">
         <v>271.0</v>
+      </c>
+      <c r="AW177" t="n">
+        <v>281.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B178" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C178" t="n">
         <v>251.0</v>
@@ -26814,14 +27343,17 @@
       </c>
       <c r="AV178" t="n">
         <v>711.0</v>
+      </c>
+      <c r="AW178" t="n">
+        <v>707.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B179" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C179" t="n">
         <v>26.0</v>
@@ -26960,14 +27492,17 @@
       </c>
       <c r="AV179" t="n">
         <v>28.0</v>
+      </c>
+      <c r="AW179" t="n">
+        <v>45.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B180" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C180" t="n">
         <v>265.0</v>
@@ -27106,14 +27641,17 @@
       </c>
       <c r="AV180" t="n">
         <v>262.0</v>
+      </c>
+      <c r="AW180" t="n">
+        <v>251.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B181" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C181" t="n">
         <v>2099.0</v>
@@ -27252,14 +27790,17 @@
       </c>
       <c r="AV181" t="n">
         <v>2958.0</v>
+      </c>
+      <c r="AW181" t="n">
+        <v>2909.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B182" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C182" t="n">
         <v>247.0</v>
@@ -27398,14 +27939,17 @@
       </c>
       <c r="AV182" t="n">
         <v>43.0</v>
+      </c>
+      <c r="AW182" t="n">
+        <v>49.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B183" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C183" t="n">
         <v>48.0</v>
@@ -27544,14 +28088,17 @@
       </c>
       <c r="AV183" t="n">
         <v>15.0</v>
+      </c>
+      <c r="AW183" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B184" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C184" t="n">
         <v>1991.0</v>
@@ -27690,14 +28237,17 @@
       </c>
       <c r="AV184" t="n">
         <v>1554.0</v>
+      </c>
+      <c r="AW184" t="n">
+        <v>809.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B185" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C185" t="n">
         <v>121.0</v>
@@ -27836,14 +28386,17 @@
       </c>
       <c r="AV185" t="n">
         <v>87.0</v>
+      </c>
+      <c r="AW185" t="n">
+        <v>94.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B186" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C186" t="n">
         <v>92.0</v>
@@ -27982,14 +28535,17 @@
       </c>
       <c r="AV186" t="n">
         <v>117.0</v>
+      </c>
+      <c r="AW186" t="n">
+        <v>120.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B187" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C187" t="n">
         <v>611.0</v>
@@ -28128,14 +28684,17 @@
       </c>
       <c r="AV187" t="n">
         <v>461.0</v>
+      </c>
+      <c r="AW187" t="n">
+        <v>432.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B188" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C188" t="n">
         <v>160.0</v>
@@ -28274,14 +28833,17 @@
       </c>
       <c r="AV188" t="n">
         <v>35.0</v>
+      </c>
+      <c r="AW188" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B189" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C189" t="n">
         <v>160.0</v>
@@ -28419,15 +28981,18 @@
         <v>0.0</v>
       </c>
       <c r="AV189" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW189" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B190" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C190" t="n">
         <v>303.0</v>
@@ -28566,14 +29131,17 @@
       </c>
       <c r="AV190" t="n">
         <v>252.0</v>
+      </c>
+      <c r="AW190" t="n">
+        <v>253.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B191" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C191" t="n">
         <v>3236.0</v>
@@ -28712,14 +29280,17 @@
       </c>
       <c r="AV191" t="n">
         <v>1200.0</v>
+      </c>
+      <c r="AW191" t="n">
+        <v>1195.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B192" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C192" t="n">
         <v>118.0</v>
@@ -28858,14 +29429,17 @@
       </c>
       <c r="AV192" t="n">
         <v>46.0</v>
+      </c>
+      <c r="AW192" t="n">
+        <v>35.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B193" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C193" t="n">
         <v>220.0</v>
@@ -29004,14 +29578,17 @@
       </c>
       <c r="AV193" t="n">
         <v>220.0</v>
+      </c>
+      <c r="AW193" t="n">
+        <v>235.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B194" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C194" t="n">
         <v>3899.0</v>
@@ -29150,14 +29727,17 @@
       </c>
       <c r="AV194" t="n">
         <v>1763.0</v>
+      </c>
+      <c r="AW194" t="n">
+        <v>1691.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B195" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C195" t="n">
         <v>4.0</v>
@@ -29295,15 +29875,18 @@
         <v>13.0</v>
       </c>
       <c r="AV195" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AW195" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B196" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C196" t="n">
         <v>8.0</v>
@@ -29442,14 +30025,17 @@
       </c>
       <c r="AV196" t="n">
         <v>6.0</v>
+      </c>
+      <c r="AW196" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B197" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C197" t="n">
         <v>49.0</v>
@@ -29588,14 +30174,17 @@
       </c>
       <c r="AV197" t="n">
         <v>20.0</v>
+      </c>
+      <c r="AW197" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B198" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C198" t="n">
         <v>255.0</v>
@@ -29734,14 +30323,17 @@
       </c>
       <c r="AV198" t="n">
         <v>78.0</v>
+      </c>
+      <c r="AW198" t="n">
+        <v>80.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B199" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C199" t="n">
         <v>44.0</v>
@@ -29880,14 +30472,17 @@
       </c>
       <c r="AV199" t="n">
         <v>62.0</v>
+      </c>
+      <c r="AW199" t="n">
+        <v>60.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B200" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C200" t="n">
         <v>7.0</v>
@@ -30025,15 +30620,18 @@
         <v>6.0</v>
       </c>
       <c r="AV200" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AW200" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B201" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C201" t="n">
         <v>121.0</v>
@@ -30172,14 +30770,17 @@
       </c>
       <c r="AV201" t="n">
         <v>124.0</v>
+      </c>
+      <c r="AW201" t="n">
+        <v>122.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B202" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C202" t="n">
         <v>387.0</v>
@@ -30318,14 +30919,17 @@
       </c>
       <c r="AV202" t="n">
         <v>483.0</v>
+      </c>
+      <c r="AW202" t="n">
+        <v>459.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B203" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C203" t="n">
         <v>78.0</v>
@@ -30464,14 +31068,17 @@
       </c>
       <c r="AV203" t="n">
         <v>40.0</v>
+      </c>
+      <c r="AW203" t="n">
+        <v>32.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B204" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C204" t="n">
         <v>292.0</v>
@@ -30610,14 +31217,17 @@
       </c>
       <c r="AV204" t="n">
         <v>361.0</v>
+      </c>
+      <c r="AW204" t="n">
+        <v>359.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B205" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C205" t="n">
         <v>38.0</v>
@@ -30756,14 +31366,17 @@
       </c>
       <c r="AV205" t="n">
         <v>13.0</v>
+      </c>
+      <c r="AW205" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B206" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C206" t="n">
         <v>49.0</v>
@@ -30901,15 +31514,18 @@
         <v>26.0</v>
       </c>
       <c r="AV206" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AW206" t="n">
         <v>25.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B207" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C207" t="n">
         <v>41.0</v>
@@ -31048,14 +31664,17 @@
       </c>
       <c r="AV207" t="n">
         <v>110.0</v>
+      </c>
+      <c r="AW207" t="n">
+        <v>115.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B208" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C208" t="n">
         <v>121.0</v>
@@ -31193,15 +31812,18 @@
         <v>304.0</v>
       </c>
       <c r="AV208" t="n">
+        <v>304.0</v>
+      </c>
+      <c r="AW208" t="n">
         <v>304.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B209" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C209" t="n">
         <v>36.0</v>
@@ -31340,14 +31962,17 @@
       </c>
       <c r="AV209" t="n">
         <v>59.0</v>
+      </c>
+      <c r="AW209" t="n">
+        <v>72.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B210" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C210" t="n">
         <v>18.0</v>
@@ -31486,14 +32111,17 @@
       </c>
       <c r="AV210" t="n">
         <v>18.0</v>
+      </c>
+      <c r="AW210" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B211" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C211" t="n">
         <v>97.0</v>
@@ -31632,14 +32260,17 @@
       </c>
       <c r="AV211" t="n">
         <v>41.0</v>
+      </c>
+      <c r="AW211" t="n">
+        <v>51.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B212" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C212" t="n">
         <v>6.0</v>
@@ -31778,14 +32409,17 @@
       </c>
       <c r="AV212" t="n">
         <v>2.0</v>
+      </c>
+      <c r="AW212" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B213" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C213" t="n">
         <v>71.0</v>
@@ -31923,15 +32557,18 @@
         <v>230.0</v>
       </c>
       <c r="AV213" t="n">
+        <v>144.0</v>
+      </c>
+      <c r="AW213" t="n">
         <v>144.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B214" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C214" t="n">
         <v>9.0</v>
@@ -32070,14 +32707,17 @@
       </c>
       <c r="AV214" t="n">
         <v>5.0</v>
+      </c>
+      <c r="AW214" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B215" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C215" t="n">
         <v>4596.0</v>
@@ -32216,14 +32856,17 @@
       </c>
       <c r="AV215" t="n">
         <v>5120.0</v>
+      </c>
+      <c r="AW215" t="n">
+        <v>5555.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B216" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C216" t="n">
         <v>48.0</v>
@@ -32362,14 +33005,17 @@
       </c>
       <c r="AV216" t="n">
         <v>22.0</v>
+      </c>
+      <c r="AW216" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B217" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C217" t="n">
         <v>654.0</v>
@@ -32508,14 +33154,17 @@
       </c>
       <c r="AV217" t="n">
         <v>1192.0</v>
+      </c>
+      <c r="AW217" t="n">
+        <v>1180.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B218" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C218" t="n">
         <v>84.0</v>
@@ -32654,14 +33303,17 @@
       </c>
       <c r="AV218" t="n">
         <v>7.0</v>
+      </c>
+      <c r="AW218" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B219" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C219" t="n">
         <v>18.0</v>
@@ -32800,14 +33452,17 @@
       </c>
       <c r="AV219" t="n">
         <v>4.0</v>
+      </c>
+      <c r="AW219" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B220" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C220" t="n">
         <v>5.0</v>
@@ -32945,15 +33600,18 @@
         <v>4.0</v>
       </c>
       <c r="AV220" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AW220" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B221" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C221" t="n">
         <v>58.0</v>
@@ -33092,14 +33750,17 @@
       </c>
       <c r="AV221" t="n">
         <v>39.0</v>
+      </c>
+      <c r="AW221" t="n">
+        <v>40.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B222" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C222" t="n">
         <v>159.0</v>
@@ -33238,14 +33899,17 @@
       </c>
       <c r="AV222" t="n">
         <v>44.0</v>
+      </c>
+      <c r="AW222" t="n">
+        <v>45.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B223" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C223" t="n">
         <v>31380.0</v>
@@ -33384,14 +34048,17 @@
       </c>
       <c r="AV223" t="n">
         <v>53510.0</v>
+      </c>
+      <c r="AW223" t="n">
+        <v>52871.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B224" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C224" t="n">
         <v>2592.0</v>
@@ -33530,14 +34197,17 @@
       </c>
       <c r="AV224" t="n">
         <v>2618.0</v>
+      </c>
+      <c r="AW224" t="n">
+        <v>2502.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B225" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C225" t="n">
         <v>11.0</v>
@@ -33675,15 +34345,18 @@
         <v>4.0</v>
       </c>
       <c r="AV225" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AW225" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B226" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C226" t="n">
         <v>312.0</v>
@@ -33822,14 +34495,17 @@
       </c>
       <c r="AV226" t="n">
         <v>146.0</v>
+      </c>
+      <c r="AW226" t="n">
+        <v>143.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B227" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C227" t="n">
         <v>0.0</v>
@@ -33967,15 +34643,18 @@
         <v>6.0</v>
       </c>
       <c r="AV227" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AW227" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B228" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C228" t="n">
         <v>179.0</v>
@@ -34114,14 +34793,17 @@
       </c>
       <c r="AV228" t="n">
         <v>358.0</v>
+      </c>
+      <c r="AW228" t="n">
+        <v>365.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B229" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C229" t="n">
         <v>1510.0</v>
@@ -34260,14 +34942,17 @@
       </c>
       <c r="AV229" t="n">
         <v>1294.0</v>
+      </c>
+      <c r="AW229" t="n">
+        <v>1286.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B230" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C230" t="n">
         <v>3091.0</v>
@@ -34406,14 +35091,17 @@
       </c>
       <c r="AV230" t="n">
         <v>5401.0</v>
+      </c>
+      <c r="AW230" t="n">
+        <v>5452.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B231" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C231" t="n">
         <v>17.0</v>
@@ -34552,14 +35240,17 @@
       </c>
       <c r="AV231" t="n">
         <v>79.0</v>
+      </c>
+      <c r="AW231" t="n">
+        <v>73.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B232" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C232" t="n">
         <v>124.0</v>
@@ -34698,14 +35389,17 @@
       </c>
       <c r="AV232" t="n">
         <v>57.0</v>
+      </c>
+      <c r="AW232" t="n">
+        <v>93.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B233" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C233" t="n">
         <v>165.0</v>
@@ -34844,14 +35538,17 @@
       </c>
       <c r="AV233" t="n">
         <v>475.0</v>
+      </c>
+      <c r="AW233" t="n">
+        <v>474.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B234" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C234" t="n">
         <v>25.0</v>
@@ -34990,14 +35687,17 @@
       </c>
       <c r="AV234" t="n">
         <v>68.0</v>
+      </c>
+      <c r="AW234" t="n">
+        <v>67.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B235" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C235" t="n">
         <v>70.0</v>
@@ -35136,14 +35836,17 @@
       </c>
       <c r="AV235" t="n">
         <v>295.0</v>
+      </c>
+      <c r="AW235" t="n">
+        <v>274.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B236" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C236" t="n">
         <v>323.0</v>
@@ -35281,15 +35984,18 @@
         <v>1211.0</v>
       </c>
       <c r="AV236" t="n">
+        <v>1211.0</v>
+      </c>
+      <c r="AW236" t="n">
         <v>1211.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B237" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C237" t="n">
         <v>1023.0</v>
@@ -35428,14 +36134,17 @@
       </c>
       <c r="AV237" t="n">
         <v>1106.0</v>
+      </c>
+      <c r="AW237" t="n">
+        <v>1195.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B238" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C238" t="n">
         <v>243.0</v>
@@ -35574,14 +36283,17 @@
       </c>
       <c r="AV238" t="n">
         <v>513.0</v>
+      </c>
+      <c r="AW238" t="n">
+        <v>496.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B239" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C239" t="n">
         <v>230.0</v>
@@ -35720,14 +36432,17 @@
       </c>
       <c r="AV239" t="n">
         <v>766.0</v>
+      </c>
+      <c r="AW239" t="n">
+        <v>730.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B240" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C240" t="n">
         <v>135.0</v>
@@ -35866,14 +36581,17 @@
       </c>
       <c r="AV240" t="n">
         <v>283.0</v>
+      </c>
+      <c r="AW240" t="n">
+        <v>286.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B241" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C241" t="n">
         <v>125.0</v>
@@ -36012,14 +36730,17 @@
       </c>
       <c r="AV241" t="n">
         <v>83.0</v>
+      </c>
+      <c r="AW241" t="n">
+        <v>74.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B242" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C242" t="n">
         <v>189.0</v>
@@ -36158,14 +36879,17 @@
       </c>
       <c r="AV242" t="n">
         <v>132.0</v>
+      </c>
+      <c r="AW242" t="n">
+        <v>130.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B243" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C243" t="n">
         <v>3689.0</v>
@@ -36304,14 +37028,17 @@
       </c>
       <c r="AV243" t="n">
         <v>9649.0</v>
+      </c>
+      <c r="AW243" t="n">
+        <v>9646.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B244" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C244" t="n">
         <v>131.0</v>
@@ -36450,14 +37177,17 @@
       </c>
       <c r="AV244" t="n">
         <v>339.0</v>
+      </c>
+      <c r="AW244" t="n">
+        <v>335.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C245" t="n">
         <v>79.0</v>
@@ -36596,14 +37326,17 @@
       </c>
       <c r="AV245" t="n">
         <v>47.0</v>
+      </c>
+      <c r="AW245" t="n">
+        <v>43.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C246" t="n">
         <v>2591.0</v>
@@ -36742,14 +37475,17 @@
       </c>
       <c r="AV246" t="n">
         <v>2422.0</v>
+      </c>
+      <c r="AW246" t="n">
+        <v>2347.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B247" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C247" t="n">
         <v>41.0</v>
@@ -36888,14 +37624,17 @@
       </c>
       <c r="AV247" t="n">
         <v>7.0</v>
+      </c>
+      <c r="AW247" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B248" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C248" t="n">
         <v>146.0</v>
@@ -37034,14 +37773,17 @@
       </c>
       <c r="AV248" t="n">
         <v>253.0</v>
+      </c>
+      <c r="AW248" t="n">
+        <v>272.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B249" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C249" t="n">
         <v>1135.0</v>
@@ -37180,14 +37922,17 @@
       </c>
       <c r="AV249" t="n">
         <v>1626.0</v>
+      </c>
+      <c r="AW249" t="n">
+        <v>1659.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B250" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C250" t="n">
         <v>176.0</v>
@@ -37326,14 +38071,17 @@
       </c>
       <c r="AV250" t="n">
         <v>128.0</v>
+      </c>
+      <c r="AW250" t="n">
+        <v>99.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B251" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C251" t="n">
         <v>126.0</v>
@@ -37472,14 +38220,17 @@
       </c>
       <c r="AV251" t="n">
         <v>65.0</v>
+      </c>
+      <c r="AW251" t="n">
+        <v>61.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B252" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C252" t="n">
         <v>350.0</v>
@@ -37618,14 +38369,17 @@
       </c>
       <c r="AV252" t="n">
         <v>297.0</v>
+      </c>
+      <c r="AW252" t="n">
+        <v>260.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B253" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C253" t="n">
         <v>357.0</v>
@@ -37764,14 +38518,17 @@
       </c>
       <c r="AV253" t="n">
         <v>850.0</v>
+      </c>
+      <c r="AW253" t="n">
+        <v>954.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B254" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C254" t="n">
         <v>112.0</v>
@@ -37910,14 +38667,17 @@
       </c>
       <c r="AV254" t="n">
         <v>30.0</v>
+      </c>
+      <c r="AW254" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B255" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C255" t="n">
         <v>68.0</v>
@@ -38056,14 +38816,17 @@
       </c>
       <c r="AV255" t="n">
         <v>35.0</v>
+      </c>
+      <c r="AW255" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B256" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C256" t="n">
         <v>180.0</v>
@@ -38202,14 +38965,17 @@
       </c>
       <c r="AV256" t="n">
         <v>278.0</v>
+      </c>
+      <c r="AW256" t="n">
+        <v>275.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B257" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C257" t="n">
         <v>35.0</v>
@@ -38348,14 +39114,17 @@
       </c>
       <c r="AV257" t="n">
         <v>144.0</v>
+      </c>
+      <c r="AW257" t="n">
+        <v>143.0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B258" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C258"/>
       <c r="D258"/>
@@ -38403,13 +39172,14 @@
       <c r="AT258"/>
       <c r="AU258"/>
       <c r="AV258"/>
+      <c r="AW258"/>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B259" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C259"/>
       <c r="D259"/>
@@ -38457,13 +39227,14 @@
       <c r="AT259"/>
       <c r="AU259"/>
       <c r="AV259"/>
+      <c r="AW259"/>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B260" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C260"/>
       <c r="D260"/>
@@ -38511,13 +39282,14 @@
       <c r="AT260"/>
       <c r="AU260"/>
       <c r="AV260"/>
+      <c r="AW260"/>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B261" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C261"/>
       <c r="D261"/>
@@ -38565,13 +39337,14 @@
       <c r="AT261"/>
       <c r="AU261"/>
       <c r="AV261"/>
+      <c r="AW261"/>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B262" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C262"/>
       <c r="D262"/>
@@ -38619,13 +39392,14 @@
       <c r="AT262"/>
       <c r="AU262"/>
       <c r="AV262"/>
+      <c r="AW262"/>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B263" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C263"/>
       <c r="D263"/>
@@ -38673,13 +39447,14 @@
       <c r="AT263"/>
       <c r="AU263"/>
       <c r="AV263"/>
+      <c r="AW263"/>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B264" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C264"/>
       <c r="D264"/>
@@ -38727,13 +39502,14 @@
       <c r="AT264"/>
       <c r="AU264"/>
       <c r="AV264"/>
+      <c r="AW264"/>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B265" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C265"/>
       <c r="D265"/>
@@ -38781,13 +39557,14 @@
       <c r="AT265"/>
       <c r="AU265"/>
       <c r="AV265"/>
+      <c r="AW265"/>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B266" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C266"/>
       <c r="D266"/>
@@ -38835,13 +39612,14 @@
       <c r="AT266"/>
       <c r="AU266"/>
       <c r="AV266"/>
+      <c r="AW266"/>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B267" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C267"/>
       <c r="D267"/>
@@ -38889,13 +39667,14 @@
       <c r="AT267"/>
       <c r="AU267"/>
       <c r="AV267"/>
+      <c r="AW267"/>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B268" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C268"/>
       <c r="D268"/>
@@ -38943,13 +39722,14 @@
       <c r="AT268"/>
       <c r="AU268"/>
       <c r="AV268"/>
+      <c r="AW268"/>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B269" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C269"/>
       <c r="D269"/>
@@ -38997,13 +39777,14 @@
       <c r="AT269"/>
       <c r="AU269"/>
       <c r="AV269"/>
+      <c r="AW269"/>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B270" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C270"/>
       <c r="D270"/>
@@ -39051,13 +39832,14 @@
       <c r="AT270"/>
       <c r="AU270"/>
       <c r="AV270"/>
+      <c r="AW270"/>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B271" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C271"/>
       <c r="D271"/>
@@ -39105,13 +39887,14 @@
       <c r="AT271"/>
       <c r="AU271"/>
       <c r="AV271"/>
+      <c r="AW271"/>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B272" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C272"/>
       <c r="D272"/>
@@ -39159,13 +39942,14 @@
       <c r="AT272"/>
       <c r="AU272"/>
       <c r="AV272"/>
+      <c r="AW272"/>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B273" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C273"/>
       <c r="D273"/>
@@ -39213,13 +39997,14 @@
       <c r="AT273"/>
       <c r="AU273"/>
       <c r="AV273"/>
+      <c r="AW273"/>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B274" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C274"/>
       <c r="D274"/>
@@ -39267,13 +40052,14 @@
       <c r="AT274"/>
       <c r="AU274"/>
       <c r="AV274"/>
+      <c r="AW274"/>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B275" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C275"/>
       <c r="D275"/>
@@ -39321,13 +40107,14 @@
       <c r="AT275"/>
       <c r="AU275"/>
       <c r="AV275"/>
+      <c r="AW275"/>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B276" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C276"/>
       <c r="D276"/>
@@ -39375,13 +40162,14 @@
       <c r="AT276"/>
       <c r="AU276"/>
       <c r="AV276"/>
+      <c r="AW276"/>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B277" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C277"/>
       <c r="D277"/>
@@ -39429,13 +40217,14 @@
       <c r="AT277"/>
       <c r="AU277"/>
       <c r="AV277"/>
+      <c r="AW277"/>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B278" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C278"/>
       <c r="D278"/>
@@ -39483,13 +40272,14 @@
       <c r="AT278"/>
       <c r="AU278"/>
       <c r="AV278"/>
+      <c r="AW278"/>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B279" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C279"/>
       <c r="D279"/>
@@ -39537,6 +40327,7 @@
       <c r="AT279"/>
       <c r="AU279"/>
       <c r="AV279"/>
+      <c r="AW279"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
